--- a/ZINFOODS/DADOS/PedidosDia.xlsx
+++ b/ZINFOODS/DADOS/PedidosDia.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R19edde081888494a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export Details" sheetId="2" r:id="R6001d6706aeb43c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R8b71ff67888742ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export Details" sheetId="2" r:id="Re3021dcdb0384daa"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QueryTable1" localSheetId="0" hidden="1">'Export'!$A$1:$A$2</x:definedName>
@@ -14,7 +14,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <x:connections xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:connection id="1" keepAlive="1" name="pbiazure://api.powerbi.com ba375909-d090-4e8f-ad03-f20f1dc89ff0 Model" type="5" refreshedVersion="6" background="1" refreshOnLoad="1">
-    <x:dbPr connection="Provider=MSOLAP;Integrated Security=ClaimsToken;Identity Provider=https://login.microsoftonline.com/common, https://analysis.windows.net/powerbi/api, 929d0ec0-7a41-4b1e-bc7c-b754a28bddcc;Persist Security Info=True;Data Source=pbiazure://api.powerbi.com;Initial Catalog=ba375909-d090-4e8f-ad03-f20f1dc89ff0;MDX Compatibility= 1; MDX Missing Member Mode= Error; Safety Options= 2; Update Isolation Level= 2;Locale Identifier=1033;" command="DEFINE&#13;&#10;&#9;VAR __DS0Core = &#13;&#10;&#9;&#9;SUMMARIZECOLUMNS(&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Ano],&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Mês],&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[MonthNo],&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Dia],&#13;&#10;&#9;&#9;&#9;&quot;Quantidade_Distinta_de_Pedidos&quot;, 'Pedidos'[Quantidade Distinta de Pedidos]&#13;&#10;&#9;&#9;)&#13;&#10;&#13;&#10;&#9;VAR __DS0BodyLimited = &#13;&#10;&#9;&#9;TOPN(&#13;&#10;&#9;&#9;&#9;500000,&#13;&#10;&#9;&#9;&#9;__DS0Core,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Ano],&#13;&#10;&#9;&#9;&#9;1,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[MonthNo],&#13;&#10;&#9;&#9;&#9;1,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Mês],&#13;&#10;&#9;&#9;&#9;1,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Dia],&#13;&#10;&#9;&#9;&#9;1&#13;&#10;&#9;&#9;)&#13;&#10;&#13;&#10;EVALUATE&#13;&#10;&#9;__DS0BodyLimited&#13;&#10;&#13;&#10;ORDER BY&#13;&#10;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Ano],&#13;&#10;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[MonthNo],&#13;&#10;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Mês],&#13;&#10;&#9;'LocalDateTable_96d7b74f-5a88-4a4e-9223-da2f34fda5d5'[Dia]" commandType="4"/>
+    <x:dbPr connection="Provider=MSOLAP;Integrated Security=ClaimsToken;Identity Provider=https://login.microsoftonline.com/common, https://analysis.windows.net/powerbi/api, 929d0ec0-7a41-4b1e-bc7c-b754a28bddcc;Persist Security Info=True;Data Source=pbiazure://api.powerbi.com;Initial Catalog=ba375909-d090-4e8f-ad03-f20f1dc89ff0;MDX Compatibility= 1; MDX Missing Member Mode= Error; Safety Options= 2; Update Isolation Level= 2;Locale Identifier=1033;" command="DEFINE&#13;&#10;&#9;VAR __DS0Core = &#13;&#10;&#9;&#9;SUMMARIZECOLUMNS(&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Ano],&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Mês],&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[MonthNo],&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Dia],&#13;&#10;&#9;&#9;&#9;&quot;Quantidade_Distinta_de_Pedidos&quot;, 'Pedidos'[Quantidade Distinta de Pedidos]&#13;&#10;&#9;&#9;)&#13;&#10;&#13;&#10;&#9;VAR __DS0BodyLimited = &#13;&#10;&#9;&#9;TOPN(&#13;&#10;&#9;&#9;&#9;500000,&#13;&#10;&#9;&#9;&#9;__DS0Core,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Ano],&#13;&#10;&#9;&#9;&#9;1,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[MonthNo],&#13;&#10;&#9;&#9;&#9;1,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Mês],&#13;&#10;&#9;&#9;&#9;1,&#13;&#10;&#9;&#9;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Dia],&#13;&#10;&#9;&#9;&#9;1&#13;&#10;&#9;&#9;)&#13;&#10;&#13;&#10;EVALUATE&#13;&#10;&#9;__DS0BodyLimited&#13;&#10;&#13;&#10;ORDER BY&#13;&#10;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Ano],&#13;&#10;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[MonthNo],&#13;&#10;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Mês],&#13;&#10;&#9;'LocalDateTable_3c4c1d27-aba3-4e2e-8b52-c6ebec4f2aa5'[Dia]" commandType="4"/>
     <x:olapPr rowDrillCount="1000"/>
   </x:connection>
 </x:connections>
